--- a/data/apps-master/1984.xlsx
+++ b/data/apps-master/1984.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{279011F6-8329-1947-822A-153AB41C5CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1F7905-8579-0B4F-8DF5-AE1F6BD048FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -378,9 +378,6 @@
     <t>John Williams</t>
   </si>
   <si>
-    <t>Anderson</t>
-  </si>
-  <si>
     <t>Gary Williams</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>Steve Mungall</t>
+  </si>
+  <si>
+    <t>Doug Anderson</t>
   </si>
 </sst>
 </file>
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -851,7 +851,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1031,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1211,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1271,7 +1271,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1451,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1491,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1511,7 +1511,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1551,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1591,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1651,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1731,7 +1731,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1751,7 +1751,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1811,7 +1811,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1831,7 +1831,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1851,7 +1851,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -2784,7 +2784,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F42">
         <v>10</v>
@@ -3137,7 +3137,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -3157,7 +3157,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3">
         <v>11</v>
@@ -3177,7 +3177,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F4">
         <v>11</v>
@@ -3197,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F5">
         <v>11</v>
@@ -3217,7 +3217,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -3237,7 +3237,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F7">
         <v>11</v>
@@ -3257,7 +3257,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F8">
         <v>11</v>
@@ -3277,7 +3277,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F9">
         <v>11</v>
@@ -3297,7 +3297,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -3317,7 +3317,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -3337,7 +3337,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -3357,7 +3357,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -3377,7 +3377,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -3397,7 +3397,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F15">
         <v>11</v>
@@ -3417,7 +3417,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -3437,7 +3437,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F17">
         <v>11</v>
@@ -3457,7 +3457,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F18">
         <v>11</v>
@@ -3477,7 +3477,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F19">
         <v>11</v>
@@ -3497,7 +3497,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F20">
         <v>11</v>
@@ -3517,7 +3517,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F21">
         <v>11</v>
@@ -3537,7 +3537,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -3557,7 +3557,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -3577,7 +3577,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F24">
         <v>11</v>
@@ -3597,7 +3597,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F25">
         <v>11</v>
@@ -3617,7 +3617,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F26">
         <v>11</v>
@@ -3637,7 +3637,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F27">
         <v>11</v>
@@ -3657,7 +3657,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F28">
         <v>11</v>
@@ -3677,7 +3677,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F29">
         <v>11</v>
@@ -3697,7 +3697,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F30">
         <v>11</v>
@@ -3717,7 +3717,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F31">
         <v>11</v>
@@ -3737,7 +3737,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F32">
         <v>11</v>
@@ -3757,7 +3757,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33">
         <v>11</v>
@@ -3777,7 +3777,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F34">
         <v>11</v>
@@ -3797,7 +3797,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F35">
         <v>11</v>
@@ -3817,7 +3817,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F36">
         <v>11</v>
@@ -3837,7 +3837,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F37">
         <v>11</v>
@@ -3857,7 +3857,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F38">
         <v>11</v>
@@ -3877,7 +3877,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F39">
         <v>11</v>
@@ -3897,7 +3897,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F40">
         <v>11</v>
@@ -3917,7 +3917,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F41">
         <v>11</v>
@@ -3937,7 +3937,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F42">
         <v>11</v>
@@ -3957,7 +3957,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F43">
         <v>11</v>
@@ -3977,7 +3977,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F44">
         <v>11</v>
@@ -3997,7 +3997,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F45">
         <v>11</v>
@@ -4017,7 +4017,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F46">
         <v>11</v>
@@ -4037,7 +4037,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F47">
         <v>11</v>
@@ -4057,7 +4057,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F48">
         <v>11</v>
@@ -4077,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F49">
         <v>11</v>
@@ -4097,7 +4097,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F50">
         <v>11</v>
@@ -4117,7 +4117,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F51">
         <v>11</v>
@@ -4137,7 +4137,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F52">
         <v>11</v>
@@ -4157,7 +4157,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F53">
         <v>11</v>
@@ -4177,7 +4177,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F54">
         <v>11</v>
@@ -4197,7 +4197,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F55">
         <v>11</v>
@@ -4217,7 +4217,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F56">
         <v>11</v>
@@ -4398,7 +4398,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4466,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -4721,7 +4721,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4925,7 +4925,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -4993,7 +4993,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -5061,7 +5061,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -5078,7 +5078,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -5129,7 +5129,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -5180,7 +5180,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -5248,7 +5248,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -5333,7 +5333,7 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -5418,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -5435,7 +5435,7 @@
         <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -5452,7 +5452,7 @@
         <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -5690,7 +5690,7 @@
         <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -5724,7 +5724,7 @@
         <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -5741,7 +5741,7 @@
         <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -5809,7 +5809,7 @@
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -10590,7 +10590,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -10610,7 +10610,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -10630,7 +10630,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -10970,7 +10970,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -13495,7 +13495,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20">
         <v>9</v>
@@ -14155,7 +14155,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53">
         <v>9</v>
